--- a/src/assets/skh_part_master_format.xlsx
+++ b/src/assets/skh_part_master_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1b8a5d1c74db81e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E72692-0887-4CC9-A6E4-21C9C4453E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{21E72692-0887-4CC9-A6E4-21C9C4453E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B36F70A-D2E1-404B-B612-0EAC35131595}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>part_no</t>
   </si>
@@ -34,9 +34,6 @@
     <t>machine_name</t>
   </si>
   <si>
-    <t>part_name</t>
-  </si>
-  <si>
     <t>cycle_time</t>
   </si>
   <si>
@@ -53,6 +50,12 @@
   </si>
   <si>
     <t>Isofix Robot Weld- CELL -3</t>
+  </si>
+  <si>
+    <t>part_operation</t>
+  </si>
+  <si>
+    <t>no_of_person</t>
   </si>
 </sst>
 </file>
@@ -336,23 +339,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -366,32 +370,35 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/skh_part_master_format.xlsx
+++ b/src/assets/skh_part_master_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1b8a5d1c74db81e/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{21E72692-0887-4CC9-A6E4-21C9C4453E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B36F70A-D2E1-404B-B612-0EAC35131595}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E72692-0887-4CC9-A6E4-21C9C4453E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>part_no</t>
   </si>
@@ -34,6 +34,9 @@
     <t>machine_name</t>
   </si>
   <si>
+    <t>part_name</t>
+  </si>
+  <si>
     <t>cycle_time</t>
   </si>
   <si>
@@ -50,12 +53,6 @@
   </si>
   <si>
     <t>Isofix Robot Weld- CELL -3</t>
-  </si>
-  <si>
-    <t>part_operation</t>
-  </si>
-  <si>
-    <t>no_of_person</t>
   </si>
 </sst>
 </file>
@@ -339,24 +336,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,35 +366,32 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
